--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kavinda Ravishan\source\repos\kavinda-ravishan\GPIB-Controller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kavinda Ravishan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DED1139-3B81-4457-BCB4-E264C8086373}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614798A4-4C70-45E6-AE3E-4C5EDC6FB0B9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1140" windowWidth="20490" windowHeight="9900" xr2:uid="{5D06C355-4652-4DCB-BB1A-8DF6D6E5786B}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="9900" xr2:uid="{DFDDFA2D-2A62-43C7-978D-1CAC01B239E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,45 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>nm</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>Step size</t>
-  </si>
-  <si>
-    <t>Fiber length</t>
-  </si>
-  <si>
-    <t>Km</t>
-  </si>
-  <si>
-    <t>Mean PMD</t>
-  </si>
-  <si>
-    <t>Minimum PMD</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>Maximum PMD</t>
-  </si>
-  <si>
-    <t>Wave Length (nm)</t>
-  </si>
-  <si>
-    <t>DGD (ps)</t>
+    <t>Wavelength</t>
   </si>
   <si>
     <t>PMD</t>
+  </si>
+  <si>
+    <t>Servo A</t>
+  </si>
+  <si>
+    <t>Servo B</t>
+  </si>
+  <si>
+    <t>Servo C</t>
   </si>
 </sst>
 </file>
@@ -414,260 +390,1617 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DD6CC7-684A-4289-9EB8-BCF0C5C1FAE0}">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA4E9DB-64FD-4CED-808A-8AFEFBBC675C}">
+  <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:XFD81"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>1550</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="E1">
-        <v>1560</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.24727414225534899</v>
+      </c>
       <c r="B3">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.24230516688815201</v>
       </c>
       <c r="B4">
-        <v>0.559467950617902</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.23967675853635301</v>
       </c>
       <c r="B5">
-        <v>0.46734189588251002</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1560</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.25270168121037301</v>
       </c>
       <c r="B6">
-        <v>0.70066116716746196</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1558</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.227750507346863</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.23954397373552</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>0.25301468951814698</v>
       </c>
       <c r="B9">
-        <v>1550</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2.2315999999999998</v>
+        <v>45</v>
       </c>
       <c r="D9">
-        <v>0.54124250083108105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>0.238285233621367</v>
       </c>
       <c r="B10">
-        <v>1551</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2.2778</v>
+        <v>45</v>
       </c>
       <c r="D10">
-        <v>0.55244764670775903</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3</v>
+        <v>0.27269125328932398</v>
       </c>
       <c r="B11">
-        <v>1552</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>2.2865000000000002</v>
+        <v>45</v>
       </c>
       <c r="D11">
-        <v>0.55455770664557502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4</v>
+        <v>0.24948381679152301</v>
       </c>
       <c r="B12">
-        <v>1553</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>2.2168999999999999</v>
+        <v>90</v>
       </c>
       <c r="D12">
-        <v>0.537677227143047</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5</v>
+        <v>0.25097816676219997</v>
       </c>
       <c r="B13">
-        <v>1554</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>2.2389000000000001</v>
+        <v>90</v>
       </c>
       <c r="D13">
-        <v>0.54301301089384602</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>6</v>
+        <v>0.25098613892632499</v>
       </c>
       <c r="B14">
-        <v>1555</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>2.2442000000000002</v>
+        <v>90</v>
       </c>
       <c r="D14">
-        <v>0.54429844970653896</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>7</v>
+        <v>0.26805529709487003</v>
       </c>
       <c r="B15">
-        <v>1556</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>2.1282000000000001</v>
+        <v>90</v>
       </c>
       <c r="D15">
-        <v>0.51616431720232403</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>8</v>
+        <v>0.25538333256229501</v>
       </c>
       <c r="B16">
-        <v>1557</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>2.1219000000000001</v>
+        <v>135</v>
       </c>
       <c r="D16">
-        <v>0.51463634276459502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>9</v>
+        <v>0.25709534776315701</v>
       </c>
       <c r="B17">
-        <v>1558</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>2.8889</v>
+        <v>135</v>
       </c>
       <c r="D17">
-        <v>0.70066116716746196</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>10</v>
+        <v>0.24805880347843201</v>
       </c>
       <c r="B18">
-        <v>1559</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>2.8123999999999998</v>
+        <v>135</v>
       </c>
       <c r="D18">
-        <v>0.68210719185218305</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>11</v>
+        <v>0.25166834421140999</v>
       </c>
       <c r="B19">
-        <v>1560</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1.9269000000000001</v>
+        <v>135</v>
       </c>
       <c r="D19">
-        <v>0.46734189588251002</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.25717776388920099</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>180</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.25788944763418198</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>180</v>
+      </c>
+      <c r="D21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.26407461339638899</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>180</v>
+      </c>
+      <c r="D22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.25946894053303599</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>180</v>
+      </c>
+      <c r="D23">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.25000361306206598</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>180</v>
+      </c>
+      <c r="D24">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.26123149316209998</v>
+      </c>
+      <c r="B25">
+        <v>45</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.26895582634089699</v>
+      </c>
+      <c r="B26">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.27494596428997897</v>
+      </c>
+      <c r="B27">
+        <v>45</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.26830681313666199</v>
+      </c>
+      <c r="B28">
+        <v>45</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.26415348916472198</v>
+      </c>
+      <c r="B29">
+        <v>45</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.27789068584174498</v>
+      </c>
+      <c r="B30">
+        <v>45</v>
+      </c>
+      <c r="C30">
+        <v>45</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.27851036469753798</v>
+      </c>
+      <c r="B31">
+        <v>45</v>
+      </c>
+      <c r="C31">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.27453417447854001</v>
+      </c>
+      <c r="B32">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <v>45</v>
+      </c>
+      <c r="D32">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.28431717540132501</v>
+      </c>
+      <c r="B33">
+        <v>45</v>
+      </c>
+      <c r="C33">
+        <v>45</v>
+      </c>
+      <c r="D33">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.278105898499795</v>
+      </c>
+      <c r="B34">
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>90</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.289009397697151</v>
+      </c>
+      <c r="B35">
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <v>90</v>
+      </c>
+      <c r="D35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.29553653785441902</v>
+      </c>
+      <c r="B36">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>90</v>
+      </c>
+      <c r="D36">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.28982080992250098</v>
+      </c>
+      <c r="B37">
+        <v>45</v>
+      </c>
+      <c r="C37">
+        <v>90</v>
+      </c>
+      <c r="D37">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.290395590300912</v>
+      </c>
+      <c r="B38">
+        <v>45</v>
+      </c>
+      <c r="C38">
+        <v>90</v>
+      </c>
+      <c r="D38">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.31590171906910702</v>
+      </c>
+      <c r="B39">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>135</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.310841149887917</v>
+      </c>
+      <c r="B40">
+        <v>45</v>
+      </c>
+      <c r="C40">
+        <v>135</v>
+      </c>
+      <c r="D40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.30492843103559097</v>
+      </c>
+      <c r="B41">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>135</v>
+      </c>
+      <c r="D41">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.28931689328877602</v>
+      </c>
+      <c r="B42">
+        <v>45</v>
+      </c>
+      <c r="C42">
+        <v>135</v>
+      </c>
+      <c r="D42">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.30459041560892403</v>
+      </c>
+      <c r="B43">
+        <v>45</v>
+      </c>
+      <c r="C43">
+        <v>135</v>
+      </c>
+      <c r="D43">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.30912971540058698</v>
+      </c>
+      <c r="B44">
+        <v>45</v>
+      </c>
+      <c r="C44">
+        <v>180</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.31993189236699199</v>
+      </c>
+      <c r="B45">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>180</v>
+      </c>
+      <c r="D45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.32817862046146801</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>180</v>
+      </c>
+      <c r="D46">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.31410572626521399</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>180</v>
+      </c>
+      <c r="D47">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.316099962747389</v>
+      </c>
+      <c r="B48">
+        <v>45</v>
+      </c>
+      <c r="C48">
+        <v>180</v>
+      </c>
+      <c r="D48">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.29952504697438398</v>
+      </c>
+      <c r="B49">
+        <v>90</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0.32988966069319797</v>
+      </c>
+      <c r="B50">
+        <v>90</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.33312994369940202</v>
+      </c>
+      <c r="B51">
+        <v>90</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.31970403224708999</v>
+      </c>
+      <c r="B52">
+        <v>90</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.32301798602793003</v>
+      </c>
+      <c r="B53">
+        <v>90</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.339800754889239</v>
+      </c>
+      <c r="B54">
+        <v>90</v>
+      </c>
+      <c r="C54">
+        <v>45</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.32842633889264899</v>
+      </c>
+      <c r="B55">
+        <v>90</v>
+      </c>
+      <c r="C55">
+        <v>45</v>
+      </c>
+      <c r="D55">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.32964216758466602</v>
+      </c>
+      <c r="B56">
+        <v>90</v>
+      </c>
+      <c r="C56">
+        <v>45</v>
+      </c>
+      <c r="D56">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.335316527291732</v>
+      </c>
+      <c r="B57">
+        <v>90</v>
+      </c>
+      <c r="C57">
+        <v>45</v>
+      </c>
+      <c r="D57">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.33112274996017899</v>
+      </c>
+      <c r="B58">
+        <v>90</v>
+      </c>
+      <c r="C58">
+        <v>45</v>
+      </c>
+      <c r="D58">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.33580888331919601</v>
+      </c>
+      <c r="B59">
+        <v>90</v>
+      </c>
+      <c r="C59">
+        <v>90</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.42005290674940998</v>
+      </c>
+      <c r="B60">
+        <v>90</v>
+      </c>
+      <c r="C60">
+        <v>90</v>
+      </c>
+      <c r="D60">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.33410326620126202</v>
+      </c>
+      <c r="B61">
+        <v>90</v>
+      </c>
+      <c r="C61">
+        <v>90</v>
+      </c>
+      <c r="D61">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.32586705419335099</v>
+      </c>
+      <c r="B62">
+        <v>90</v>
+      </c>
+      <c r="C62">
+        <v>90</v>
+      </c>
+      <c r="D62">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.32909025582157603</v>
+      </c>
+      <c r="B63">
+        <v>90</v>
+      </c>
+      <c r="C63">
+        <v>90</v>
+      </c>
+      <c r="D63">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.33995792214460102</v>
+      </c>
+      <c r="B64">
+        <v>90</v>
+      </c>
+      <c r="C64">
+        <v>135</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.35168192024720901</v>
+      </c>
+      <c r="B65">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>135</v>
+      </c>
+      <c r="D65">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.34773467639143102</v>
+      </c>
+      <c r="B66">
+        <v>90</v>
+      </c>
+      <c r="C66">
+        <v>135</v>
+      </c>
+      <c r="D66">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.34872826100238002</v>
+      </c>
+      <c r="B67">
+        <v>90</v>
+      </c>
+      <c r="C67">
+        <v>135</v>
+      </c>
+      <c r="D67">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.34904678373832798</v>
+      </c>
+      <c r="B68">
+        <v>90</v>
+      </c>
+      <c r="C68">
+        <v>135</v>
+      </c>
+      <c r="D68">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.35292955915483198</v>
+      </c>
+      <c r="B69">
+        <v>90</v>
+      </c>
+      <c r="C69">
+        <v>180</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.35529062048881399</v>
+      </c>
+      <c r="B70">
+        <v>90</v>
+      </c>
+      <c r="C70">
+        <v>180</v>
+      </c>
+      <c r="D70">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.34661720623374598</v>
+      </c>
+      <c r="B71">
+        <v>90</v>
+      </c>
+      <c r="C71">
+        <v>180</v>
+      </c>
+      <c r="D71">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0.35231473039704497</v>
+      </c>
+      <c r="B72">
+        <v>90</v>
+      </c>
+      <c r="C72">
+        <v>180</v>
+      </c>
+      <c r="D72">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.35283440366851898</v>
+      </c>
+      <c r="B73">
+        <v>135</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0.362106864835884</v>
+      </c>
+      <c r="B74">
+        <v>135</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.35561906366481599</v>
+      </c>
+      <c r="B75">
+        <v>135</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0.36176256704777099</v>
+      </c>
+      <c r="B76">
+        <v>135</v>
+      </c>
+      <c r="C76">
+        <v>45</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.37118743322852299</v>
+      </c>
+      <c r="B77">
+        <v>135</v>
+      </c>
+      <c r="C77">
+        <v>45</v>
+      </c>
+      <c r="D77">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.36652461424490401</v>
+      </c>
+      <c r="B78">
+        <v>135</v>
+      </c>
+      <c r="C78">
+        <v>45</v>
+      </c>
+      <c r="D78">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.37255420883968998</v>
+      </c>
+      <c r="B79">
+        <v>135</v>
+      </c>
+      <c r="C79">
+        <v>45</v>
+      </c>
+      <c r="D79">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.36288868637299998</v>
+      </c>
+      <c r="B80">
+        <v>135</v>
+      </c>
+      <c r="C80">
+        <v>45</v>
+      </c>
+      <c r="D80">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.36872425081850302</v>
+      </c>
+      <c r="B81">
+        <v>135</v>
+      </c>
+      <c r="C81">
+        <v>90</v>
+      </c>
+      <c r="D81">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.36412485142344098</v>
+      </c>
+      <c r="B82">
+        <v>135</v>
+      </c>
+      <c r="C82">
+        <v>90</v>
+      </c>
+      <c r="D82">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.36533132042670602</v>
+      </c>
+      <c r="B83">
+        <v>135</v>
+      </c>
+      <c r="C83">
+        <v>90</v>
+      </c>
+      <c r="D83">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.360213349051276</v>
+      </c>
+      <c r="B84">
+        <v>135</v>
+      </c>
+      <c r="C84">
+        <v>90</v>
+      </c>
+      <c r="D84">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.36308302704841999</v>
+      </c>
+      <c r="B85">
+        <v>135</v>
+      </c>
+      <c r="C85">
+        <v>135</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.36864127381499301</v>
+      </c>
+      <c r="B86">
+        <v>135</v>
+      </c>
+      <c r="C86">
+        <v>135</v>
+      </c>
+      <c r="D86">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0.36756406784284901</v>
+      </c>
+      <c r="B87">
+        <v>135</v>
+      </c>
+      <c r="C87">
+        <v>135</v>
+      </c>
+      <c r="D87">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0.36553835534721901</v>
+      </c>
+      <c r="B88">
+        <v>135</v>
+      </c>
+      <c r="C88">
+        <v>135</v>
+      </c>
+      <c r="D88">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0.370606014380924</v>
+      </c>
+      <c r="B89">
+        <v>135</v>
+      </c>
+      <c r="C89">
+        <v>180</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0.382143350075069</v>
+      </c>
+      <c r="B90">
+        <v>135</v>
+      </c>
+      <c r="C90">
+        <v>180</v>
+      </c>
+      <c r="D90">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.37350262070525903</v>
+      </c>
+      <c r="B91">
+        <v>135</v>
+      </c>
+      <c r="C91">
+        <v>180</v>
+      </c>
+      <c r="D91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.36682833264328002</v>
+      </c>
+      <c r="B92">
+        <v>135</v>
+      </c>
+      <c r="C92">
+        <v>180</v>
+      </c>
+      <c r="D92">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0.37860659061426899</v>
+      </c>
+      <c r="B93">
+        <v>135</v>
+      </c>
+      <c r="C93">
+        <v>180</v>
+      </c>
+      <c r="D93">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0.37018471794755398</v>
+      </c>
+      <c r="B94">
+        <v>180</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.373581425671343</v>
+      </c>
+      <c r="B95">
+        <v>180</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0.37344119000505799</v>
+      </c>
+      <c r="B96">
+        <v>180</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0.37050747017477198</v>
+      </c>
+      <c r="B97">
+        <v>180</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0.35877366183343401</v>
+      </c>
+      <c r="B98">
+        <v>180</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0.36950136400220901</v>
+      </c>
+      <c r="B99">
+        <v>180</v>
+      </c>
+      <c r="C99">
+        <v>45</v>
+      </c>
+      <c r="D99">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0.37538558479694401</v>
+      </c>
+      <c r="B100">
+        <v>180</v>
+      </c>
+      <c r="C100">
+        <v>45</v>
+      </c>
+      <c r="D100">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>0.37644267259112502</v>
+      </c>
+      <c r="B101">
+        <v>180</v>
+      </c>
+      <c r="C101">
+        <v>45</v>
+      </c>
+      <c r="D101">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>0.36887939257170299</v>
+      </c>
+      <c r="B102">
+        <v>180</v>
+      </c>
+      <c r="C102">
+        <v>90</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>0.38159318400037001</v>
+      </c>
+      <c r="B103">
+        <v>180</v>
+      </c>
+      <c r="C103">
+        <v>90</v>
+      </c>
+      <c r="D103">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>0.38329330339019702</v>
+      </c>
+      <c r="B104">
+        <v>180</v>
+      </c>
+      <c r="C104">
+        <v>90</v>
+      </c>
+      <c r="D104">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>0.37586060732686299</v>
+      </c>
+      <c r="B105">
+        <v>180</v>
+      </c>
+      <c r="C105">
+        <v>90</v>
+      </c>
+      <c r="D105">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>0.37067667778934199</v>
+      </c>
+      <c r="B106">
+        <v>180</v>
+      </c>
+      <c r="C106">
+        <v>90</v>
+      </c>
+      <c r="D106">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>0.36943954672245699</v>
+      </c>
+      <c r="B107">
+        <v>180</v>
+      </c>
+      <c r="C107">
+        <v>135</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>0.36968663795323498</v>
+      </c>
+      <c r="B108">
+        <v>180</v>
+      </c>
+      <c r="C108">
+        <v>135</v>
+      </c>
+      <c r="D108">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>0.368172682363203</v>
+      </c>
+      <c r="B109">
+        <v>180</v>
+      </c>
+      <c r="C109">
+        <v>135</v>
+      </c>
+      <c r="D109">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>0.37177575209978803</v>
+      </c>
+      <c r="B110">
+        <v>180</v>
+      </c>
+      <c r="C110">
+        <v>135</v>
+      </c>
+      <c r="D110">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>0.36454090122307198</v>
+      </c>
+      <c r="B111">
+        <v>180</v>
+      </c>
+      <c r="C111">
+        <v>135</v>
+      </c>
+      <c r="D111">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>0.36956996294667499</v>
+      </c>
+      <c r="B112">
+        <v>180</v>
+      </c>
+      <c r="C112">
+        <v>180</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>0.38030814863429002</v>
+      </c>
+      <c r="B113">
+        <v>180</v>
+      </c>
+      <c r="C113">
+        <v>180</v>
+      </c>
+      <c r="D113">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>0.37900943425755701</v>
+      </c>
+      <c r="B114">
+        <v>180</v>
+      </c>
+      <c r="C114">
+        <v>180</v>
+      </c>
+      <c r="D114">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>0.37023879870349802</v>
+      </c>
+      <c r="B115">
+        <v>180</v>
+      </c>
+      <c r="C115">
+        <v>180</v>
+      </c>
+      <c r="D115">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
